--- a/v_serfend/20220306.Py.junction-edge-path-calc/configuration/data.xlsx
+++ b/v_serfend/20220306.Py.junction-edge-path-calc/configuration/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCFDA73-77F7-437D-94BD-3E641D34E8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E204D8F-8930-491A-9872-704E3A776E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2370" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edge" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,14 @@
   </si>
   <si>
     <t>contact me with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些都是随机生成的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=Round(Rand() * 30,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,12 +374,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -386,13 +400,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,6 +570,64 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AB88FF-E893-42CD-83B5-2EB51C9943F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3114675" y="762000"/>
+          <a:ext cx="4324350" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -818,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F44" activeCellId="3" sqref="G40 F41 G43 F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1911,7 +1991,7 @@
       <c r="F40" s="1">
         <v>27</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="6">
         <v>1</v>
       </c>
       <c r="H40" s="1">
@@ -1934,7 +2014,7 @@
       <c r="E41" s="1">
         <v>2</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6">
         <v>1</v>
       </c>
       <c r="G41" s="1">
@@ -1989,7 +2069,7 @@
       <c r="F43" s="1">
         <v>26</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="6">
         <v>1</v>
       </c>
       <c r="H43" s="1">
@@ -2012,7 +2092,7 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="6">
         <v>1</v>
       </c>
       <c r="G44" s="1">
@@ -3089,19 +3169,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BF2C0E-7593-4868-A077-D148853F9E22}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3115,7 +3196,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3128,11 +3209,11 @@
       <c r="D2">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3145,14 +3226,14 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3165,14 +3246,14 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3185,34 +3266,34 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3225,14 +3306,17 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3245,14 +3329,17 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N8" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3265,14 +3352,14 @@
       <c r="D9">
         <v>5</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3285,14 +3372,14 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3305,28 +3392,28 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3339,14 +3426,14 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3359,14 +3446,14 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3379,14 +3466,14 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3399,14 +3486,14 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3419,14 +3506,14 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3439,34 +3526,34 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>26</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3480,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3493,14 +3580,14 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3513,14 +3600,14 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3533,14 +3620,14 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3553,14 +3640,15 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3573,11 +3661,13 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3590,11 +3680,13 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3607,11 +3699,13 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3624,11 +3718,13 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3641,11 +3737,13 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3659,7 +3757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3673,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3775,5 +3873,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>